--- a/Code/Results/Cases/Case_0_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9934081776653041</v>
+        <v>1.024607700635785</v>
       </c>
       <c r="D2">
-        <v>1.001897641275082</v>
+        <v>1.026149859510542</v>
       </c>
       <c r="E2">
-        <v>1.000784033360534</v>
+        <v>1.025073165548221</v>
       </c>
       <c r="F2">
-        <v>1.002329476427521</v>
+        <v>1.035154460294946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044842233308411</v>
+        <v>1.032172235627278</v>
       </c>
       <c r="J2">
-        <v>1.015787852596845</v>
+        <v>1.029781365592948</v>
       </c>
       <c r="K2">
-        <v>1.0133306020979</v>
+        <v>1.028973348598866</v>
       </c>
       <c r="L2">
-        <v>1.01223245614911</v>
+        <v>1.027899805325654</v>
       </c>
       <c r="M2">
-        <v>1.013756453063711</v>
+        <v>1.03795187841028</v>
       </c>
       <c r="N2">
-        <v>1.017230387860019</v>
+        <v>1.031243773249667</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9980919639627795</v>
+        <v>1.025576526147129</v>
       </c>
       <c r="D3">
-        <v>1.005709821724484</v>
+        <v>1.026983881884379</v>
       </c>
       <c r="E3">
-        <v>1.004521009806072</v>
+        <v>1.02589534093246</v>
       </c>
       <c r="F3">
-        <v>1.007808044423123</v>
+        <v>1.036344313573487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04619316186744</v>
+        <v>1.032353193227729</v>
       </c>
       <c r="J3">
-        <v>1.018634779458278</v>
+        <v>1.030389070285153</v>
       </c>
       <c r="K3">
-        <v>1.016270161922552</v>
+        <v>1.029614752364802</v>
       </c>
       <c r="L3">
-        <v>1.01509636845994</v>
+        <v>1.028529165815819</v>
       </c>
       <c r="M3">
-        <v>1.018341985246201</v>
+        <v>1.038950055937122</v>
       </c>
       <c r="N3">
-        <v>1.020081357684151</v>
+        <v>1.031852340952236</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.001055068839211</v>
+        <v>1.02620334923417</v>
       </c>
       <c r="D4">
-        <v>1.008126733063431</v>
+        <v>1.027523791124847</v>
       </c>
       <c r="E4">
-        <v>1.006891290999118</v>
+        <v>1.026427681397812</v>
       </c>
       <c r="F4">
-        <v>1.011272788981569</v>
+        <v>1.037114056540733</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047031263505446</v>
+        <v>1.032468239768286</v>
       </c>
       <c r="J4">
-        <v>1.020431824299641</v>
+        <v>1.030781642468573</v>
       </c>
       <c r="K4">
-        <v>1.018128055179666</v>
+        <v>1.030029381982526</v>
       </c>
       <c r="L4">
-        <v>1.016907249692364</v>
+        <v>1.028936096998637</v>
       </c>
       <c r="M4">
-        <v>1.021237038901474</v>
+        <v>1.039595207164697</v>
       </c>
       <c r="N4">
-        <v>1.021880954535312</v>
+        <v>1.032245470633185</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002285174174299</v>
+        <v>1.026466848117759</v>
       </c>
       <c r="D5">
-        <v>1.009131297391008</v>
+        <v>1.027750825824427</v>
       </c>
       <c r="E5">
-        <v>1.007876721884811</v>
+        <v>1.026651557372716</v>
       </c>
       <c r="F5">
-        <v>1.012710910745857</v>
+        <v>1.037437615841038</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047375173183211</v>
+        <v>1.032516115256485</v>
       </c>
       <c r="J5">
-        <v>1.021176854373461</v>
+        <v>1.030946522838513</v>
       </c>
       <c r="K5">
-        <v>1.018898883012191</v>
+        <v>1.030203595534217</v>
       </c>
       <c r="L5">
-        <v>1.017658763096404</v>
+        <v>1.029107096704974</v>
       </c>
       <c r="M5">
-        <v>1.022437493909635</v>
+        <v>1.039866252662251</v>
       </c>
       <c r="N5">
-        <v>1.022627042637294</v>
+        <v>1.032410585152163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002490817360488</v>
+        <v>1.02651108970076</v>
       </c>
       <c r="D6">
-        <v>1.009299305363637</v>
+        <v>1.027788949258941</v>
       </c>
       <c r="E6">
-        <v>1.008041544359199</v>
+        <v>1.026689151802129</v>
       </c>
       <c r="F6">
-        <v>1.012951316582321</v>
+        <v>1.037491940501051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047432428480989</v>
+        <v>1.032524125009443</v>
       </c>
       <c r="J6">
-        <v>1.02130134539821</v>
+        <v>1.030974197756777</v>
       </c>
       <c r="K6">
-        <v>1.0190277183146</v>
+        <v>1.03023284106519</v>
       </c>
       <c r="L6">
-        <v>1.017784381376459</v>
+        <v>1.029135803940627</v>
       </c>
       <c r="M6">
-        <v>1.022638098399265</v>
+        <v>1.039911752074648</v>
       </c>
       <c r="N6">
-        <v>1.022751710453577</v>
+        <v>1.032438299371985</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.001071566025885</v>
+        <v>1.026206870188527</v>
       </c>
       <c r="D7">
-        <v>1.00814020076505</v>
+        <v>1.027526824551283</v>
       </c>
       <c r="E7">
-        <v>1.006904501213653</v>
+        <v>1.026430672526147</v>
       </c>
       <c r="F7">
-        <v>1.011292076788319</v>
+        <v>1.037118380115092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047035891704281</v>
+        <v>1.032468881409176</v>
       </c>
       <c r="J7">
-        <v>1.020441820028682</v>
+        <v>1.030783846225663</v>
       </c>
       <c r="K7">
-        <v>1.018138394767088</v>
+        <v>1.03003171021344</v>
       </c>
       <c r="L7">
-        <v>1.016917329451802</v>
+        <v>1.0289383821973</v>
       </c>
       <c r="M7">
-        <v>1.0212531439549</v>
+        <v>1.039598829579529</v>
       </c>
       <c r="N7">
-        <v>1.021890964459435</v>
+        <v>1.032247677519863</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9950054604159788</v>
+        <v>1.024935134410239</v>
       </c>
       <c r="D8">
-        <v>1.003196563922688</v>
+        <v>1.026431670874395</v>
       </c>
       <c r="E8">
-        <v>1.002057109447809</v>
+        <v>1.025350953054901</v>
       </c>
       <c r="F8">
-        <v>1.00419807111353</v>
+        <v>1.035556612601979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045306372187696</v>
+        <v>1.032233814272464</v>
       </c>
       <c r="J8">
-        <v>1.016759542370665</v>
+        <v>1.029986877196788</v>
       </c>
       <c r="K8">
-        <v>1.014333409122292</v>
+        <v>1.029190196770295</v>
       </c>
       <c r="L8">
-        <v>1.013209287795845</v>
+        <v>1.028112563866246</v>
       </c>
       <c r="M8">
-        <v>1.015321475562607</v>
+        <v>1.038289369781221</v>
       </c>
       <c r="N8">
-        <v>1.018203457544781</v>
+        <v>1.031449576703554</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.983769375109763</v>
+        <v>1.02269363840731</v>
       </c>
       <c r="D9">
-        <v>0.9940834185261878</v>
+        <v>1.024503752382478</v>
       </c>
       <c r="E9">
-        <v>0.9931299221551547</v>
+        <v>1.023450976384379</v>
       </c>
       <c r="F9">
-        <v>0.9910464844037624</v>
+        <v>1.032803242636772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041973104387894</v>
+        <v>1.031803952933132</v>
       </c>
       <c r="J9">
-        <v>1.00990859122338</v>
+        <v>1.028577535593116</v>
       </c>
       <c r="K9">
-        <v>1.00727322309827</v>
+        <v>1.027704294184937</v>
       </c>
       <c r="L9">
-        <v>1.006335453743861</v>
+        <v>1.026655041559764</v>
       </c>
       <c r="M9">
-        <v>1.004286515909875</v>
+        <v>1.035976284034158</v>
       </c>
       <c r="N9">
-        <v>1.011342777261051</v>
+        <v>1.030038233673151</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9758674688325379</v>
+        <v>1.021198964917186</v>
       </c>
       <c r="D10">
-        <v>0.9877074955059754</v>
+        <v>1.023219785937863</v>
       </c>
       <c r="E10">
-        <v>0.9868901846990558</v>
+        <v>1.022186141038229</v>
       </c>
       <c r="F10">
-        <v>0.9817861492263887</v>
+        <v>1.030966730617533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039544379071274</v>
+        <v>1.031506887069839</v>
       </c>
       <c r="J10">
-        <v>1.005072389710199</v>
+        <v>1.027634656063815</v>
       </c>
       <c r="K10">
-        <v>1.002302299420956</v>
+        <v>1.026711676897278</v>
       </c>
       <c r="L10">
-        <v>1.001500245091076</v>
+        <v>1.025681831986985</v>
       </c>
       <c r="M10">
-        <v>0.9964922361898179</v>
+        <v>1.034430409388537</v>
       </c>
       <c r="N10">
-        <v>1.006499707787002</v>
+        <v>1.029094015146768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9723376422605688</v>
+        <v>1.020551676063724</v>
       </c>
       <c r="D11">
-        <v>0.9848679573806504</v>
+        <v>1.022664134867342</v>
       </c>
       <c r="E11">
-        <v>0.9841128141384009</v>
+        <v>1.021638893868459</v>
       </c>
       <c r="F11">
-        <v>0.977645933582186</v>
+        <v>1.03017127083266</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038440150393188</v>
+        <v>1.031375770779068</v>
       </c>
       <c r="J11">
-        <v>1.002908271403158</v>
+        <v>1.027225597394939</v>
       </c>
       <c r="K11">
-        <v>1.000080997444096</v>
+        <v>1.026281391122717</v>
       </c>
       <c r="L11">
-        <v>0.9993406902544273</v>
+        <v>1.025260065873007</v>
       </c>
       <c r="M11">
-        <v>0.9930020970977553</v>
+        <v>1.033760117813289</v>
       </c>
       <c r="N11">
-        <v>1.004332516183737</v>
+        <v>1.028684375567663</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9710092488303612</v>
+        <v>1.020311231430183</v>
       </c>
       <c r="D12">
-        <v>0.9838007103287455</v>
+        <v>1.022457789299756</v>
       </c>
       <c r="E12">
-        <v>0.9830691676455005</v>
+        <v>1.021435687965769</v>
       </c>
       <c r="F12">
-        <v>0.9760872100195049</v>
+        <v>1.029875765008598</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038021758290885</v>
+        <v>1.031326695366954</v>
       </c>
       <c r="J12">
-        <v>1.002093325008238</v>
+        <v>1.027073537139403</v>
       </c>
       <c r="K12">
-        <v>0.9992449859571769</v>
+        <v>1.026121492775224</v>
       </c>
       <c r="L12">
-        <v>0.9985280865430782</v>
+        <v>1.025103349560377</v>
       </c>
       <c r="M12">
-        <v>0.9916873428414568</v>
+        <v>1.033511003212293</v>
       </c>
       <c r="N12">
-        <v>1.00351641247146</v>
+        <v>1.028532099369122</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9712949915899424</v>
+        <v>1.020362808195032</v>
       </c>
       <c r="D13">
-        <v>0.9840302164849023</v>
+        <v>1.0225020489425</v>
       </c>
       <c r="E13">
-        <v>0.9832935878987373</v>
+        <v>1.02147927332065</v>
       </c>
       <c r="F13">
-        <v>0.9764225271476982</v>
+        <v>1.029939153683501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038111883006158</v>
+        <v>1.031337239082497</v>
       </c>
       <c r="J13">
-        <v>1.002268645706585</v>
+        <v>1.027106159898447</v>
       </c>
       <c r="K13">
-        <v>0.9994248172049599</v>
+        <v>1.026155794721628</v>
       </c>
       <c r="L13">
-        <v>0.9987028749673957</v>
+        <v>1.025136968159252</v>
       </c>
       <c r="M13">
-        <v>0.9919702109551635</v>
+        <v>1.03356444541538</v>
       </c>
       <c r="N13">
-        <v>1.003691982145309</v>
+        <v>1.028564768456226</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9722281949580059</v>
+        <v>1.020531801094534</v>
       </c>
       <c r="D14">
-        <v>0.9847799979079158</v>
+        <v>1.022647077295699</v>
       </c>
       <c r="E14">
-        <v>0.984026794944684</v>
+        <v>1.021622095453327</v>
       </c>
       <c r="F14">
-        <v>0.9775175223177812</v>
+        <v>1.030146844981729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038405735935355</v>
+        <v>1.031371721797058</v>
       </c>
       <c r="J14">
-        <v>1.00284113755149</v>
+        <v>1.027213030444705</v>
       </c>
       <c r="K14">
-        <v>1.000012118750176</v>
+        <v>1.026268175322289</v>
       </c>
       <c r="L14">
-        <v>0.9992737366759346</v>
+        <v>1.025247112744368</v>
       </c>
       <c r="M14">
-        <v>0.9928938001019133</v>
+        <v>1.033739528750798</v>
       </c>
       <c r="N14">
-        <v>1.004265286994299</v>
+        <v>1.028671790770918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9728008542766508</v>
+        <v>1.020635921512866</v>
       </c>
       <c r="D15">
-        <v>0.9852402829528283</v>
+        <v>1.022736440428553</v>
       </c>
       <c r="E15">
-        <v>0.9844769362706228</v>
+        <v>1.021710101658498</v>
       </c>
       <c r="F15">
-        <v>0.9781893806863587</v>
+        <v>1.030274805563025</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038585687111962</v>
+        <v>1.031392918321396</v>
       </c>
       <c r="J15">
-        <v>1.003192380206236</v>
+        <v>1.027278861336471</v>
       </c>
       <c r="K15">
-        <v>1.0003725094817</v>
+        <v>1.02633740731767</v>
       </c>
       <c r="L15">
-        <v>0.9996240616024999</v>
+        <v>1.025314969370358</v>
       </c>
       <c r="M15">
-        <v>0.9934603876442724</v>
+        <v>1.033847385006211</v>
       </c>
       <c r="N15">
-        <v>1.004617028453903</v>
+        <v>1.028737715150101</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9760993679462714</v>
+        <v>1.021241921556003</v>
       </c>
       <c r="D16">
-        <v>0.9878942301138006</v>
+        <v>1.023256669361154</v>
       </c>
       <c r="E16">
-        <v>0.9870728631911069</v>
+        <v>1.022222469255188</v>
       </c>
       <c r="F16">
-        <v>0.9820580679134651</v>
+        <v>1.031019517574213</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039616527532967</v>
+        <v>1.031515536502523</v>
       </c>
       <c r="J16">
-        <v>1.005214491750349</v>
+        <v>1.027661787420843</v>
       </c>
       <c r="K16">
-        <v>1.002448221016991</v>
+        <v>1.026740223558277</v>
       </c>
       <c r="L16">
-        <v>1.00164213357029</v>
+        <v>1.025709815672296</v>
       </c>
       <c r="M16">
-        <v>0.9967213504366429</v>
+        <v>1.034474875048064</v>
       </c>
       <c r="N16">
-        <v>1.006642011628348</v>
+        <v>1.029121185033435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9781387789320146</v>
+        <v>1.021622026584341</v>
       </c>
       <c r="D17">
-        <v>0.989537435076204</v>
+        <v>1.023583080005202</v>
       </c>
       <c r="E17">
-        <v>0.9886805490581116</v>
+        <v>1.022543980857335</v>
       </c>
       <c r="F17">
-        <v>0.9844490114941131</v>
+        <v>1.031486591408643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040248843532297</v>
+        <v>1.0315917866293</v>
       </c>
       <c r="J17">
-        <v>1.006463770944882</v>
+        <v>1.027901776774571</v>
       </c>
       <c r="K17">
-        <v>1.003731432020689</v>
+        <v>1.026992772442778</v>
       </c>
       <c r="L17">
-        <v>1.002890003505761</v>
+        <v>1.025957396298222</v>
       </c>
       <c r="M17">
-        <v>0.9987353129433452</v>
+        <v>1.03486823687221</v>
       </c>
       <c r="N17">
-        <v>1.007893064942632</v>
+        <v>1.029361515199572</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9793179597269788</v>
+        <v>1.021843727173711</v>
       </c>
       <c r="D18">
-        <v>0.9904883425489249</v>
+        <v>1.023773500147332</v>
       </c>
       <c r="E18">
-        <v>0.9896110454012809</v>
+        <v>1.022731555046827</v>
       </c>
       <c r="F18">
-        <v>0.9858311149588949</v>
+        <v>1.031759004774399</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040612613995965</v>
+        <v>1.031636022268086</v>
       </c>
       <c r="J18">
-        <v>1.007185740705264</v>
+        <v>1.028041682679405</v>
       </c>
       <c r="K18">
-        <v>1.004473304586472</v>
+        <v>1.027140033983202</v>
       </c>
       <c r="L18">
-        <v>1.003611548170907</v>
+        <v>1.026101771127185</v>
       </c>
       <c r="M18">
-        <v>0.9998989875381207</v>
+        <v>1.035097589669509</v>
       </c>
       <c r="N18">
-        <v>1.008616059982885</v>
+        <v>1.029501619786839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9797182993843667</v>
+        <v>1.021919319944405</v>
       </c>
       <c r="D19">
-        <v>0.9908113175242192</v>
+        <v>1.023838433619764</v>
       </c>
       <c r="E19">
-        <v>0.98992711188799</v>
+        <v>1.022795520084801</v>
       </c>
       <c r="F19">
-        <v>0.9863002941897551</v>
+        <v>1.031851886835148</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040735803663448</v>
+        <v>1.031651064798416</v>
       </c>
       <c r="J19">
-        <v>1.0074307917985</v>
+        <v>1.028089374104685</v>
       </c>
       <c r="K19">
-        <v>1.004725160776615</v>
+        <v>1.027190238554945</v>
       </c>
       <c r="L19">
-        <v>1.003856520872432</v>
+        <v>1.026150993302068</v>
       </c>
       <c r="M19">
-        <v>1.000293929402072</v>
+        <v>1.0351757780534</v>
       </c>
       <c r="N19">
-        <v>1.008861459076781</v>
+        <v>1.029549378939414</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9779210493160795</v>
+        <v>1.021581245763864</v>
       </c>
       <c r="D20">
-        <v>0.9893619200825601</v>
+        <v>1.023548056089469</v>
       </c>
       <c r="E20">
-        <v>0.9885088130221682</v>
+        <v>1.022509481364744</v>
       </c>
       <c r="F20">
-        <v>0.9841937869564328</v>
+        <v>1.031436481181361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040181526552906</v>
+        <v>1.03158363051041</v>
       </c>
       <c r="J20">
-        <v>1.006330433567936</v>
+        <v>1.027876036028264</v>
       </c>
       <c r="K20">
-        <v>1.00359444258928</v>
+        <v>1.026965681087155</v>
       </c>
       <c r="L20">
-        <v>1.002756776091462</v>
+        <v>1.02593083683213</v>
       </c>
       <c r="M20">
-        <v>0.9985203826701738</v>
+        <v>1.034826042029252</v>
       </c>
       <c r="N20">
-        <v>1.007759538211317</v>
+        <v>1.029335737898453</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9719538746484438</v>
+        <v>1.020482037248431</v>
       </c>
       <c r="D21">
-        <v>0.984559557279413</v>
+        <v>1.022604368730545</v>
       </c>
       <c r="E21">
-        <v>0.9838112207737181</v>
+        <v>1.021580036065559</v>
       </c>
       <c r="F21">
-        <v>0.9771956601760555</v>
+        <v>1.030085686089665</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038319433642345</v>
+        <v>1.03136157779063</v>
       </c>
       <c r="J21">
-        <v>1.002672864164802</v>
+        <v>1.027181562977304</v>
       </c>
       <c r="K21">
-        <v>0.9998394794102891</v>
+        <v>1.0262350839942</v>
       </c>
       <c r="L21">
-        <v>0.9991059252203178</v>
+        <v>1.025214679385102</v>
       </c>
       <c r="M21">
-        <v>0.9926223419281934</v>
+        <v>1.033687974899515</v>
       </c>
       <c r="N21">
-        <v>1.004096774640101</v>
+        <v>1.028640278616104</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9681016684968557</v>
+        <v>1.019790847601894</v>
       </c>
       <c r="D22">
-        <v>0.9814673249352708</v>
+        <v>1.022011312961308</v>
       </c>
       <c r="E22">
-        <v>0.9807878211831025</v>
+        <v>1.020996039487124</v>
       </c>
       <c r="F22">
-        <v>0.9726742441938354</v>
+        <v>1.029236175155994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037100846264424</v>
+        <v>1.031219806622614</v>
       </c>
       <c r="J22">
-        <v>1.000308683331388</v>
+        <v>1.026744239686812</v>
       </c>
       <c r="K22">
-        <v>0.997415080015458</v>
+        <v>1.025775317736734</v>
       </c>
       <c r="L22">
-        <v>0.9967497305319112</v>
+        <v>1.024764092900781</v>
       </c>
       <c r="M22">
-        <v>0.9888071863465686</v>
+        <v>1.032971625506369</v>
       </c>
       <c r="N22">
-        <v>1.001729236398728</v>
+        <v>1.028202334276378</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9701536671402176</v>
+        <v>1.020157267260331</v>
       </c>
       <c r="D23">
-        <v>0.98311372055005</v>
+        <v>1.022325676477993</v>
       </c>
       <c r="E23">
-        <v>0.9823974366510791</v>
+        <v>1.021305590619042</v>
       </c>
       <c r="F23">
-        <v>0.9750830931589063</v>
+        <v>1.029686537412428</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037751493507348</v>
+        <v>1.031295166627805</v>
       </c>
       <c r="J23">
-        <v>1.00156830161444</v>
+        <v>1.026976137418964</v>
       </c>
       <c r="K23">
-        <v>0.99870652398409</v>
+        <v>1.026019087325186</v>
       </c>
       <c r="L23">
-        <v>0.9980047490601507</v>
+        <v>1.025002986535562</v>
       </c>
       <c r="M23">
-        <v>0.9908401754811896</v>
+        <v>1.033351452040716</v>
       </c>
       <c r="N23">
-        <v>1.002990643484222</v>
+        <v>1.028434561329908</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780194639404346</v>
+        <v>1.021599672886585</v>
       </c>
       <c r="D24">
-        <v>0.9894412510228884</v>
+        <v>1.023563881795659</v>
       </c>
       <c r="E24">
-        <v>0.9885864354689239</v>
+        <v>1.022525070070937</v>
       </c>
       <c r="F24">
-        <v>0.9843091504542951</v>
+        <v>1.031459123906487</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04021195977584</v>
+        <v>1.031587316650283</v>
       </c>
       <c r="J24">
-        <v>1.00639070369397</v>
+        <v>1.027887667397758</v>
       </c>
       <c r="K24">
-        <v>1.003656362578871</v>
+        <v>1.026977922646572</v>
       </c>
       <c r="L24">
-        <v>1.00281699530559</v>
+        <v>1.025942838018998</v>
       </c>
       <c r="M24">
-        <v>0.9986175344346166</v>
+        <v>1.034845108335673</v>
       </c>
       <c r="N24">
-        <v>1.007819893927843</v>
+        <v>1.029347385785826</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9867432601697879</v>
+        <v>1.023273180495377</v>
       </c>
       <c r="D25">
-        <v>0.9964899937136062</v>
+        <v>1.025001937594149</v>
       </c>
       <c r="E25">
-        <v>0.9954863648451817</v>
+        <v>1.023941849451731</v>
       </c>
       <c r="F25">
-        <v>0.9945290297828233</v>
+        <v>1.033515216543537</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042870108867383</v>
+        <v>1.031916933480201</v>
       </c>
       <c r="J25">
-        <v>1.011725153686639</v>
+        <v>1.028942471252853</v>
       </c>
       <c r="K25">
-        <v>1.009143043481455</v>
+        <v>1.028088793338981</v>
       </c>
       <c r="L25">
-        <v>1.008155155631426</v>
+        <v>1.027032117882674</v>
       </c>
       <c r="M25">
-        <v>1.007212873398642</v>
+        <v>1.036574943606848</v>
       </c>
       <c r="N25">
-        <v>1.013161919451371</v>
+        <v>1.030403687583383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024607700635785</v>
+        <v>0.993408177665303</v>
       </c>
       <c r="D2">
-        <v>1.026149859510542</v>
+        <v>1.00189764127508</v>
       </c>
       <c r="E2">
-        <v>1.025073165548221</v>
+        <v>1.000784033360533</v>
       </c>
       <c r="F2">
-        <v>1.035154460294946</v>
+        <v>1.00232947642752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032172235627278</v>
+        <v>1.04484223330841</v>
       </c>
       <c r="J2">
-        <v>1.029781365592948</v>
+        <v>1.015787852596844</v>
       </c>
       <c r="K2">
-        <v>1.028973348598866</v>
+        <v>1.0133306020979</v>
       </c>
       <c r="L2">
-        <v>1.027899805325654</v>
+        <v>1.012232456149109</v>
       </c>
       <c r="M2">
-        <v>1.03795187841028</v>
+        <v>1.01375645306371</v>
       </c>
       <c r="N2">
-        <v>1.031243773249667</v>
+        <v>1.017230387860018</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025576526147129</v>
+        <v>0.9980919639627777</v>
       </c>
       <c r="D3">
-        <v>1.026983881884379</v>
+        <v>1.005709821724482</v>
       </c>
       <c r="E3">
-        <v>1.02589534093246</v>
+        <v>1.00452100980607</v>
       </c>
       <c r="F3">
-        <v>1.036344313573487</v>
+        <v>1.007808044423121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032353193227729</v>
+        <v>1.04619316186744</v>
       </c>
       <c r="J3">
-        <v>1.030389070285153</v>
+        <v>1.018634779458277</v>
       </c>
       <c r="K3">
-        <v>1.029614752364802</v>
+        <v>1.01627016192255</v>
       </c>
       <c r="L3">
-        <v>1.028529165815819</v>
+        <v>1.015096368459939</v>
       </c>
       <c r="M3">
-        <v>1.038950055937122</v>
+        <v>1.0183419852462</v>
       </c>
       <c r="N3">
-        <v>1.031852340952236</v>
+        <v>1.02008135768415</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02620334923417</v>
+        <v>1.001055068839211</v>
       </c>
       <c r="D4">
-        <v>1.027523791124847</v>
+        <v>1.008126733063431</v>
       </c>
       <c r="E4">
-        <v>1.026427681397812</v>
+        <v>1.006891290999117</v>
       </c>
       <c r="F4">
-        <v>1.037114056540733</v>
+        <v>1.011272788981569</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032468239768286</v>
+        <v>1.047031263505446</v>
       </c>
       <c r="J4">
-        <v>1.030781642468573</v>
+        <v>1.020431824299641</v>
       </c>
       <c r="K4">
-        <v>1.030029381982526</v>
+        <v>1.018128055179666</v>
       </c>
       <c r="L4">
-        <v>1.028936096998637</v>
+        <v>1.016907249692364</v>
       </c>
       <c r="M4">
-        <v>1.039595207164697</v>
+        <v>1.021237038901474</v>
       </c>
       <c r="N4">
-        <v>1.032245470633185</v>
+        <v>1.021880954535312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026466848117759</v>
+        <v>1.002285174174298</v>
       </c>
       <c r="D5">
-        <v>1.027750825824427</v>
+        <v>1.009131297391008</v>
       </c>
       <c r="E5">
-        <v>1.026651557372716</v>
+        <v>1.00787672188481</v>
       </c>
       <c r="F5">
-        <v>1.037437615841038</v>
+        <v>1.012710910745857</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032516115256485</v>
+        <v>1.047375173183211</v>
       </c>
       <c r="J5">
-        <v>1.030946522838513</v>
+        <v>1.021176854373461</v>
       </c>
       <c r="K5">
-        <v>1.030203595534217</v>
+        <v>1.018898883012191</v>
       </c>
       <c r="L5">
-        <v>1.029107096704974</v>
+        <v>1.017658763096403</v>
       </c>
       <c r="M5">
-        <v>1.039866252662251</v>
+        <v>1.022437493909635</v>
       </c>
       <c r="N5">
-        <v>1.032410585152163</v>
+        <v>1.022627042637293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02651108970076</v>
+        <v>1.002490817360488</v>
       </c>
       <c r="D6">
-        <v>1.027788949258941</v>
+        <v>1.009299305363637</v>
       </c>
       <c r="E6">
-        <v>1.026689151802129</v>
+        <v>1.008041544359199</v>
       </c>
       <c r="F6">
-        <v>1.037491940501051</v>
+        <v>1.012951316582321</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032524125009443</v>
+        <v>1.047432428480989</v>
       </c>
       <c r="J6">
-        <v>1.030974197756777</v>
+        <v>1.02130134539821</v>
       </c>
       <c r="K6">
-        <v>1.03023284106519</v>
+        <v>1.019027718314601</v>
       </c>
       <c r="L6">
-        <v>1.029135803940627</v>
+        <v>1.017784381376459</v>
       </c>
       <c r="M6">
-        <v>1.039911752074648</v>
+        <v>1.022638098399265</v>
       </c>
       <c r="N6">
-        <v>1.032438299371985</v>
+        <v>1.022751710453577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026206870188527</v>
+        <v>1.001071566025885</v>
       </c>
       <c r="D7">
-        <v>1.027526824551283</v>
+        <v>1.00814020076505</v>
       </c>
       <c r="E7">
-        <v>1.026430672526147</v>
+        <v>1.006904501213653</v>
       </c>
       <c r="F7">
-        <v>1.037118380115092</v>
+        <v>1.01129207678832</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032468881409176</v>
+        <v>1.047035891704281</v>
       </c>
       <c r="J7">
-        <v>1.030783846225663</v>
+        <v>1.020441820028682</v>
       </c>
       <c r="K7">
-        <v>1.03003171021344</v>
+        <v>1.018138394767089</v>
       </c>
       <c r="L7">
-        <v>1.0289383821973</v>
+        <v>1.016917329451802</v>
       </c>
       <c r="M7">
-        <v>1.039598829579529</v>
+        <v>1.0212531439549</v>
       </c>
       <c r="N7">
-        <v>1.032247677519863</v>
+        <v>1.021890964459436</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024935134410239</v>
+        <v>0.9950054604159784</v>
       </c>
       <c r="D8">
-        <v>1.026431670874395</v>
+        <v>1.003196563922688</v>
       </c>
       <c r="E8">
-        <v>1.025350953054901</v>
+        <v>1.002057109447809</v>
       </c>
       <c r="F8">
-        <v>1.035556612601979</v>
+        <v>1.004198071113529</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032233814272464</v>
+        <v>1.045306372187696</v>
       </c>
       <c r="J8">
-        <v>1.029986877196788</v>
+        <v>1.016759542370665</v>
       </c>
       <c r="K8">
-        <v>1.029190196770295</v>
+        <v>1.014333409122292</v>
       </c>
       <c r="L8">
-        <v>1.028112563866246</v>
+        <v>1.013209287795845</v>
       </c>
       <c r="M8">
-        <v>1.038289369781221</v>
+        <v>1.015321475562606</v>
       </c>
       <c r="N8">
-        <v>1.031449576703554</v>
+        <v>1.018203457544781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02269363840731</v>
+        <v>0.9837693751097628</v>
       </c>
       <c r="D9">
-        <v>1.024503752382478</v>
+        <v>0.9940834185261874</v>
       </c>
       <c r="E9">
-        <v>1.023450976384379</v>
+        <v>0.9931299221551542</v>
       </c>
       <c r="F9">
-        <v>1.032803242636772</v>
+        <v>0.9910464844037622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031803952933132</v>
+        <v>1.041973104387894</v>
       </c>
       <c r="J9">
-        <v>1.028577535593116</v>
+        <v>1.009908591223379</v>
       </c>
       <c r="K9">
-        <v>1.027704294184937</v>
+        <v>1.00727322309827</v>
       </c>
       <c r="L9">
-        <v>1.026655041559764</v>
+        <v>1.006335453743861</v>
       </c>
       <c r="M9">
-        <v>1.035976284034158</v>
+        <v>1.004286515909875</v>
       </c>
       <c r="N9">
-        <v>1.030038233673151</v>
+        <v>1.011342777261051</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021198964917186</v>
+        <v>0.9758674688325378</v>
       </c>
       <c r="D10">
-        <v>1.023219785937863</v>
+        <v>0.9877074955059753</v>
       </c>
       <c r="E10">
-        <v>1.022186141038229</v>
+        <v>0.9868901846990555</v>
       </c>
       <c r="F10">
-        <v>1.030966730617533</v>
+        <v>0.9817861492263886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031506887069839</v>
+        <v>1.039544379071274</v>
       </c>
       <c r="J10">
-        <v>1.027634656063815</v>
+        <v>1.005072389710199</v>
       </c>
       <c r="K10">
-        <v>1.026711676897278</v>
+        <v>1.002302299420956</v>
       </c>
       <c r="L10">
-        <v>1.025681831986985</v>
+        <v>1.001500245091076</v>
       </c>
       <c r="M10">
-        <v>1.034430409388537</v>
+        <v>0.9964922361898177</v>
       </c>
       <c r="N10">
-        <v>1.029094015146768</v>
+        <v>1.006499707787002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020551676063724</v>
+        <v>0.9723376422605697</v>
       </c>
       <c r="D11">
-        <v>1.022664134867342</v>
+        <v>0.984867957380651</v>
       </c>
       <c r="E11">
-        <v>1.021638893868459</v>
+        <v>0.9841128141384016</v>
       </c>
       <c r="F11">
-        <v>1.03017127083266</v>
+        <v>0.9776459335821863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031375770779068</v>
+        <v>1.038440150393188</v>
       </c>
       <c r="J11">
-        <v>1.027225597394939</v>
+        <v>1.002908271403158</v>
       </c>
       <c r="K11">
-        <v>1.026281391122717</v>
+        <v>1.000080997444097</v>
       </c>
       <c r="L11">
-        <v>1.025260065873007</v>
+        <v>0.9993406902544277</v>
       </c>
       <c r="M11">
-        <v>1.033760117813289</v>
+        <v>0.9930020970977558</v>
       </c>
       <c r="N11">
-        <v>1.028684375567663</v>
+        <v>1.004332516183737</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020311231430183</v>
+        <v>0.9710092488303602</v>
       </c>
       <c r="D12">
-        <v>1.022457789299756</v>
+        <v>0.9838007103287444</v>
       </c>
       <c r="E12">
-        <v>1.021435687965769</v>
+        <v>0.9830691676454996</v>
       </c>
       <c r="F12">
-        <v>1.029875765008598</v>
+        <v>0.9760872100195044</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031326695366954</v>
+        <v>1.038021758290884</v>
       </c>
       <c r="J12">
-        <v>1.027073537139403</v>
+        <v>1.002093325008237</v>
       </c>
       <c r="K12">
-        <v>1.026121492775224</v>
+        <v>0.999244985957176</v>
       </c>
       <c r="L12">
-        <v>1.025103349560377</v>
+        <v>0.9985280865430775</v>
       </c>
       <c r="M12">
-        <v>1.033511003212293</v>
+        <v>0.9916873428414562</v>
       </c>
       <c r="N12">
-        <v>1.028532099369122</v>
+        <v>1.00351641247146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020362808195032</v>
+        <v>0.9712949915899423</v>
       </c>
       <c r="D13">
-        <v>1.0225020489425</v>
+        <v>0.9840302164849023</v>
       </c>
       <c r="E13">
-        <v>1.02147927332065</v>
+        <v>0.9832935878987372</v>
       </c>
       <c r="F13">
-        <v>1.029939153683501</v>
+        <v>0.9764225271476984</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031337239082497</v>
+        <v>1.038111883006158</v>
       </c>
       <c r="J13">
-        <v>1.027106159898447</v>
+        <v>1.002268645706585</v>
       </c>
       <c r="K13">
-        <v>1.026155794721628</v>
+        <v>0.9994248172049599</v>
       </c>
       <c r="L13">
-        <v>1.025136968159252</v>
+        <v>0.9987028749673955</v>
       </c>
       <c r="M13">
-        <v>1.03356444541538</v>
+        <v>0.9919702109551637</v>
       </c>
       <c r="N13">
-        <v>1.028564768456226</v>
+        <v>1.003691982145309</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020531801094534</v>
+        <v>0.9722281949580052</v>
       </c>
       <c r="D14">
-        <v>1.022647077295699</v>
+        <v>0.9847799979079145</v>
       </c>
       <c r="E14">
-        <v>1.021622095453327</v>
+        <v>0.9840267949446833</v>
       </c>
       <c r="F14">
-        <v>1.030146844981729</v>
+        <v>0.9775175223177804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031371721797058</v>
+        <v>1.038405735935354</v>
       </c>
       <c r="J14">
-        <v>1.027213030444705</v>
+        <v>1.002841137551489</v>
       </c>
       <c r="K14">
-        <v>1.026268175322289</v>
+        <v>1.000012118750176</v>
       </c>
       <c r="L14">
-        <v>1.025247112744368</v>
+        <v>0.9992737366759338</v>
       </c>
       <c r="M14">
-        <v>1.033739528750798</v>
+        <v>0.9928938001019127</v>
       </c>
       <c r="N14">
-        <v>1.028671790770918</v>
+        <v>1.004265286994299</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020635921512866</v>
+        <v>0.9728008542766502</v>
       </c>
       <c r="D15">
-        <v>1.022736440428553</v>
+        <v>0.9852402829528276</v>
       </c>
       <c r="E15">
-        <v>1.021710101658498</v>
+        <v>0.9844769362706222</v>
       </c>
       <c r="F15">
-        <v>1.030274805563025</v>
+        <v>0.9781893806863583</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031392918321396</v>
+        <v>1.038585687111962</v>
       </c>
       <c r="J15">
-        <v>1.027278861336471</v>
+        <v>1.003192380206236</v>
       </c>
       <c r="K15">
-        <v>1.02633740731767</v>
+        <v>1.0003725094817</v>
       </c>
       <c r="L15">
-        <v>1.025314969370358</v>
+        <v>0.9996240616024993</v>
       </c>
       <c r="M15">
-        <v>1.033847385006211</v>
+        <v>0.9934603876442719</v>
       </c>
       <c r="N15">
-        <v>1.028737715150101</v>
+        <v>1.004617028453903</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021241921556003</v>
+        <v>0.9760993679462716</v>
       </c>
       <c r="D16">
-        <v>1.023256669361154</v>
+        <v>0.9878942301138008</v>
       </c>
       <c r="E16">
-        <v>1.022222469255188</v>
+        <v>0.9870728631911069</v>
       </c>
       <c r="F16">
-        <v>1.031019517574213</v>
+        <v>0.9820580679134645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031515536502523</v>
+        <v>1.039616527532967</v>
       </c>
       <c r="J16">
-        <v>1.027661787420843</v>
+        <v>1.005214491750349</v>
       </c>
       <c r="K16">
-        <v>1.026740223558277</v>
+        <v>1.002448221016991</v>
       </c>
       <c r="L16">
-        <v>1.025709815672296</v>
+        <v>1.001642133570291</v>
       </c>
       <c r="M16">
-        <v>1.034474875048064</v>
+        <v>0.9967213504366426</v>
       </c>
       <c r="N16">
-        <v>1.029121185033435</v>
+        <v>1.006642011628348</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021622026584341</v>
+        <v>0.9781387789320144</v>
       </c>
       <c r="D17">
-        <v>1.023583080005202</v>
+        <v>0.9895374350762036</v>
       </c>
       <c r="E17">
-        <v>1.022543980857335</v>
+        <v>0.9886805490581112</v>
       </c>
       <c r="F17">
-        <v>1.031486591408643</v>
+        <v>0.9844490114941131</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0315917866293</v>
+        <v>1.040248843532297</v>
       </c>
       <c r="J17">
-        <v>1.027901776774571</v>
+        <v>1.006463770944882</v>
       </c>
       <c r="K17">
-        <v>1.026992772442778</v>
+        <v>1.003731432020689</v>
       </c>
       <c r="L17">
-        <v>1.025957396298222</v>
+        <v>1.002890003505761</v>
       </c>
       <c r="M17">
-        <v>1.03486823687221</v>
+        <v>0.9987353129433451</v>
       </c>
       <c r="N17">
-        <v>1.029361515199572</v>
+        <v>1.007893064942632</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021843727173711</v>
+        <v>0.979317959726979</v>
       </c>
       <c r="D18">
-        <v>1.023773500147332</v>
+        <v>0.9904883425489251</v>
       </c>
       <c r="E18">
-        <v>1.022731555046827</v>
+        <v>0.9896110454012806</v>
       </c>
       <c r="F18">
-        <v>1.031759004774399</v>
+        <v>0.985831114958895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031636022268086</v>
+        <v>1.040612613995965</v>
       </c>
       <c r="J18">
-        <v>1.028041682679405</v>
+        <v>1.007185740705264</v>
       </c>
       <c r="K18">
-        <v>1.027140033983202</v>
+        <v>1.004473304586472</v>
       </c>
       <c r="L18">
-        <v>1.026101771127185</v>
+        <v>1.003611548170907</v>
       </c>
       <c r="M18">
-        <v>1.035097589669509</v>
+        <v>0.9998989875381208</v>
       </c>
       <c r="N18">
-        <v>1.029501619786839</v>
+        <v>1.008616059982885</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021919319944405</v>
+        <v>0.9797182993843647</v>
       </c>
       <c r="D19">
-        <v>1.023838433619764</v>
+        <v>0.9908113175242169</v>
       </c>
       <c r="E19">
-        <v>1.022795520084801</v>
+        <v>0.9899271118879883</v>
       </c>
       <c r="F19">
-        <v>1.031851886835148</v>
+        <v>0.9863002941897528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031651064798416</v>
+        <v>1.040735803663447</v>
       </c>
       <c r="J19">
-        <v>1.028089374104685</v>
+        <v>1.007430791798498</v>
       </c>
       <c r="K19">
-        <v>1.027190238554945</v>
+        <v>1.004725160776613</v>
       </c>
       <c r="L19">
-        <v>1.026150993302068</v>
+        <v>1.003856520872431</v>
       </c>
       <c r="M19">
-        <v>1.0351757780534</v>
+        <v>1.00029392940207</v>
       </c>
       <c r="N19">
-        <v>1.029549378939414</v>
+        <v>1.008861459076779</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021581245763864</v>
+        <v>0.9779210493160782</v>
       </c>
       <c r="D20">
-        <v>1.023548056089469</v>
+        <v>0.9893619200825585</v>
       </c>
       <c r="E20">
-        <v>1.022509481364744</v>
+        <v>0.9885088130221672</v>
       </c>
       <c r="F20">
-        <v>1.031436481181361</v>
+        <v>0.9841937869564318</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03158363051041</v>
+        <v>1.040181526552906</v>
       </c>
       <c r="J20">
-        <v>1.027876036028264</v>
+        <v>1.006330433567935</v>
       </c>
       <c r="K20">
-        <v>1.026965681087155</v>
+        <v>1.003594442589279</v>
       </c>
       <c r="L20">
-        <v>1.02593083683213</v>
+        <v>1.00275677609146</v>
       </c>
       <c r="M20">
-        <v>1.034826042029252</v>
+        <v>0.9985203826701728</v>
       </c>
       <c r="N20">
-        <v>1.029335737898453</v>
+        <v>1.007759538211315</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020482037248431</v>
+        <v>0.9719538746484433</v>
       </c>
       <c r="D21">
-        <v>1.022604368730545</v>
+        <v>0.9845595572794121</v>
       </c>
       <c r="E21">
-        <v>1.021580036065559</v>
+        <v>0.9838112207737174</v>
       </c>
       <c r="F21">
-        <v>1.030085686089665</v>
+        <v>0.9771956601760553</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03136157779063</v>
+        <v>1.038319433642344</v>
       </c>
       <c r="J21">
-        <v>1.027181562977304</v>
+        <v>1.002672864164802</v>
       </c>
       <c r="K21">
-        <v>1.0262350839942</v>
+        <v>0.9998394794102883</v>
       </c>
       <c r="L21">
-        <v>1.025214679385102</v>
+        <v>0.9991059252203172</v>
       </c>
       <c r="M21">
-        <v>1.033687974899515</v>
+        <v>0.992622341928193</v>
       </c>
       <c r="N21">
-        <v>1.028640278616104</v>
+        <v>1.0040967746401</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019790847601894</v>
+        <v>0.9681016684968549</v>
       </c>
       <c r="D22">
-        <v>1.022011312961308</v>
+        <v>0.98146732493527</v>
       </c>
       <c r="E22">
-        <v>1.020996039487124</v>
+        <v>0.980787821183101</v>
       </c>
       <c r="F22">
-        <v>1.029236175155994</v>
+        <v>0.9726742441938343</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031219806622614</v>
+        <v>1.037100846264424</v>
       </c>
       <c r="J22">
-        <v>1.026744239686812</v>
+        <v>1.000308683331387</v>
       </c>
       <c r="K22">
-        <v>1.025775317736734</v>
+        <v>0.997415080015457</v>
       </c>
       <c r="L22">
-        <v>1.024764092900781</v>
+        <v>0.99674973053191</v>
       </c>
       <c r="M22">
-        <v>1.032971625506369</v>
+        <v>0.9888071863465676</v>
       </c>
       <c r="N22">
-        <v>1.028202334276378</v>
+        <v>1.001729236398727</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020157267260331</v>
+        <v>0.9701536671402172</v>
       </c>
       <c r="D23">
-        <v>1.022325676477993</v>
+        <v>0.9831137205500502</v>
       </c>
       <c r="E23">
-        <v>1.021305590619042</v>
+        <v>0.9823974366510791</v>
       </c>
       <c r="F23">
-        <v>1.029686537412428</v>
+        <v>0.9750830931589056</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031295166627805</v>
+        <v>1.037751493507348</v>
       </c>
       <c r="J23">
-        <v>1.026976137418964</v>
+        <v>1.00156830161444</v>
       </c>
       <c r="K23">
-        <v>1.026019087325186</v>
+        <v>0.9987065239840901</v>
       </c>
       <c r="L23">
-        <v>1.025002986535562</v>
+        <v>0.9980047490601507</v>
       </c>
       <c r="M23">
-        <v>1.033351452040716</v>
+        <v>0.9908401754811893</v>
       </c>
       <c r="N23">
-        <v>1.028434561329908</v>
+        <v>1.002990643484222</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021599672886585</v>
+        <v>0.9780194639404347</v>
       </c>
       <c r="D24">
-        <v>1.023563881795659</v>
+        <v>0.9894412510228884</v>
       </c>
       <c r="E24">
-        <v>1.022525070070937</v>
+        <v>0.9885864354689234</v>
       </c>
       <c r="F24">
-        <v>1.031459123906487</v>
+        <v>0.9843091504542951</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031587316650283</v>
+        <v>1.04021195977584</v>
       </c>
       <c r="J24">
-        <v>1.027887667397758</v>
+        <v>1.00639070369397</v>
       </c>
       <c r="K24">
-        <v>1.026977922646572</v>
+        <v>1.003656362578871</v>
       </c>
       <c r="L24">
-        <v>1.025942838018998</v>
+        <v>1.00281699530559</v>
       </c>
       <c r="M24">
-        <v>1.034845108335673</v>
+        <v>0.9986175344346166</v>
       </c>
       <c r="N24">
-        <v>1.029347385785826</v>
+        <v>1.007819893927842</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023273180495377</v>
+        <v>0.9867432601697873</v>
       </c>
       <c r="D25">
-        <v>1.025001937594149</v>
+        <v>0.9964899937136058</v>
       </c>
       <c r="E25">
-        <v>1.023941849451731</v>
+        <v>0.9954863648451808</v>
       </c>
       <c r="F25">
-        <v>1.033515216543537</v>
+        <v>0.9945290297828226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031916933480201</v>
+        <v>1.042870108867382</v>
       </c>
       <c r="J25">
-        <v>1.028942471252853</v>
+        <v>1.011725153686639</v>
       </c>
       <c r="K25">
-        <v>1.028088793338981</v>
+        <v>1.009143043481454</v>
       </c>
       <c r="L25">
-        <v>1.027032117882674</v>
+        <v>1.008155155631425</v>
       </c>
       <c r="M25">
-        <v>1.036574943606848</v>
+        <v>1.007212873398641</v>
       </c>
       <c r="N25">
-        <v>1.030403687583383</v>
+        <v>1.013161919451371</v>
       </c>
     </row>
   </sheetData>
